--- a/Vencimiento Licencias.xlsx
+++ b/Vencimiento Licencias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto KADABRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LPM\ProyectoCore_EVOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A23D4537-5D8A-43D9-90DC-68F6113C785D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="265">
   <si>
     <t>Unidad de negocio</t>
   </si>
@@ -854,12 +855,66 @@
     <t>Entorno 
 (Desa, QA, Prod)</t>
   </si>
+  <si>
+    <t>Grupo de productos </t>
+  </si>
+  <si>
+    <t>Familia de productos de licencia </t>
+  </si>
+  <si>
+    <t>Versión de la licencia</t>
+  </si>
+  <si>
+    <t>Cantidad real</t>
+  </si>
+  <si>
+    <t>Cantidad sin resolver</t>
+  </si>
+  <si>
+    <t>Cantidad de SA activo</t>
+  </si>
+  <si>
+    <r>
+      <t>Servers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Visual Studio Team Foundation Server</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Visual Studio Team Foundation Server Device CAL</t>
+  </si>
+  <si>
+    <t>Visual Studio Team Foundation Server External Connector</t>
+  </si>
+  <si>
+    <t>Visual Studio Team Foundation Server User CAL</t>
+  </si>
+  <si>
+    <t>SQL Server - Standard</t>
+  </si>
+  <si>
+    <t>SQL Server Standard Core</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,8 +942,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFF7F7F7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,8 +984,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73A7CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF6FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -959,11 +1054,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1013,6 +1160,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,28 +1465,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1371,7 +1542,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1395,7 +1566,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1417,7 +1588,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1439,7 +1610,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1461,7 +1632,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1485,7 +1656,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1509,7 +1680,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1533,7 +1704,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1557,7 +1728,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1583,7 +1754,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1607,7 +1778,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1631,7 +1802,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1655,7 +1826,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1679,7 +1850,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1703,7 +1874,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1727,7 +1898,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1751,7 +1922,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1775,7 +1946,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1799,7 +1970,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1823,7 +1994,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1847,7 +2018,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1871,7 +2042,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1895,7 +2066,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1917,7 +2088,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1941,7 +2112,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1965,7 +2136,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1989,7 +2160,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2013,7 +2184,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2037,7 +2208,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2061,7 +2232,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2085,7 +2256,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2109,7 +2280,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2133,7 +2304,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2157,7 +2328,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2181,7 +2352,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2205,7 +2376,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2229,7 +2400,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2253,7 +2424,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2277,7 +2448,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2301,7 +2472,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2325,7 +2496,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2349,7 +2520,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2373,7 +2544,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2397,7 +2568,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2421,7 +2592,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2445,7 +2616,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2469,7 +2640,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2493,7 +2664,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2517,7 +2688,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2541,7 +2712,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2565,7 +2736,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2589,7 +2760,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2613,7 +2784,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2637,7 +2808,7 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2661,7 +2832,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2685,7 +2856,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2709,7 +2880,7 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2733,7 +2904,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2757,7 +2928,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2781,7 +2952,7 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2805,7 +2976,7 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2829,7 +3000,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2853,7 +3024,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2877,7 +3048,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2901,7 +3072,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2925,7 +3096,7 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2949,7 +3120,7 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2973,7 +3144,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2997,7 +3168,7 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3021,7 +3192,7 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3045,7 +3216,7 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3069,7 +3240,7 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3093,7 +3264,7 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3117,7 +3288,7 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3141,7 +3312,7 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3165,7 +3336,7 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3189,7 +3360,7 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3213,7 +3384,7 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3237,7 +3408,7 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3261,7 +3432,7 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3285,7 +3456,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3309,7 +3480,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3333,7 +3504,7 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3357,7 +3528,7 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3381,7 +3552,7 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3405,7 +3576,7 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3429,7 +3600,7 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3453,7 +3624,7 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3477,7 +3648,7 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3501,7 +3672,7 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3525,7 +3696,7 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3549,7 +3720,7 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3573,7 +3744,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3597,7 +3768,7 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3621,7 +3792,7 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3645,7 +3816,7 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3669,7 +3840,7 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3693,7 +3864,7 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3717,7 +3888,7 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3741,7 +3912,7 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3765,7 +3936,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3789,7 +3960,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3813,7 +3984,7 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3837,7 +4008,7 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3861,7 +4032,7 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3885,7 +4056,7 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3909,7 +4080,7 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3933,7 +4104,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3957,7 +4128,7 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3981,7 +4152,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4005,7 +4176,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4029,7 +4200,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4053,7 +4224,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4077,7 +4248,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4101,7 +4272,7 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4125,7 +4296,7 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4149,7 +4320,7 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4173,7 +4344,7 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4197,7 +4368,7 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -4221,7 +4392,7 @@
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4245,7 +4416,7 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -4269,7 +4440,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4293,7 +4464,7 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4317,7 +4488,7 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4341,7 +4512,7 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -4365,7 +4536,7 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4389,7 +4560,7 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4413,7 +4584,7 @@
       </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4437,7 +4608,7 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4461,7 +4632,7 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4485,7 +4656,7 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -4509,7 +4680,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4533,7 +4704,7 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4557,7 +4728,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4581,7 +4752,7 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4605,7 +4776,7 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4629,7 +4800,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4653,7 +4824,7 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4677,7 +4848,7 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4701,7 +4872,7 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -4725,7 +4896,7 @@
       </c>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -4749,7 +4920,7 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -4773,7 +4944,7 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -4797,7 +4968,7 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4821,7 +4992,7 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -4845,7 +5016,7 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4869,7 +5040,7 @@
       </c>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -4893,7 +5064,7 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -4917,7 +5088,7 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -4941,7 +5112,7 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -4965,7 +5136,7 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -4989,7 +5160,7 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -5013,7 +5184,7 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -5037,7 +5208,7 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -5061,7 +5232,7 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -5085,7 +5256,7 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -5109,7 +5280,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -5133,7 +5304,7 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5157,7 +5328,7 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -5181,7 +5352,7 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -5205,7 +5376,7 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -5229,7 +5400,7 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -5253,7 +5424,7 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -5277,7 +5448,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -5301,7 +5472,7 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -5325,7 +5496,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -5349,7 +5520,7 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -5373,7 +5544,7 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -5397,7 +5568,7 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -5421,7 +5592,7 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -5445,7 +5616,7 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -5469,7 +5640,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -5493,7 +5664,7 @@
       </c>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -5517,7 +5688,7 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -5541,7 +5712,7 @@
       </c>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -5565,7 +5736,7 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -5589,7 +5760,7 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -5613,7 +5784,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -5637,7 +5808,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -5661,7 +5832,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -5685,7 +5856,7 @@
       </c>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -5709,7 +5880,7 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -5733,7 +5904,7 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -5757,7 +5928,7 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -5787,20 +5958,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5808,7 +5979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5824,7 +5995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5832,7 +6003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -5840,7 +6011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5848,12 +6019,153 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="26">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="26">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="26">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="25">
+        <v>14</v>
+      </c>
+      <c r="E15" s="25">
+        <v>88</v>
+      </c>
+      <c r="F15" s="25">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Vencimiento Licencias.xlsx
+++ b/Vencimiento Licencias.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Licencias" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Software!$A$1:$K$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Software!$A$1:$J$186</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1295,10 +1295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1607,7 +1608,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1727,7 +1728,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1823,7 +1824,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1847,7 +1848,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1917,7 +1918,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1965,7 +1966,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2277,7 +2278,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2325,7 +2326,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2877,7 +2878,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3045,7 +3046,7 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3573,7 +3574,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3621,7 +3622,7 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3741,7 +3742,7 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3765,7 +3766,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3789,7 +3790,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3813,7 +3814,7 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3981,7 +3982,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4005,7 +4006,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4053,7 +4054,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4077,7 +4078,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4125,7 +4126,7 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4149,7 +4150,7 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4269,7 +4270,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4293,7 +4294,7 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4533,7 +4534,7 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4629,7 +4630,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4797,7 +4798,7 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4845,7 +4846,7 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4917,7 +4918,7 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -5277,7 +5278,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -5301,7 +5302,7 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -5325,7 +5326,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -5349,7 +5350,7 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -5397,7 +5398,7 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -5421,7 +5422,7 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -5661,7 +5662,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -5709,7 +5710,7 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -5782,6 +5783,13 @@
       <c r="J186" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J186">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AFP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
